--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nlgn3-Nrxn2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nlgn3-Nrxn2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.007630333333333333</v>
+        <v>0.083036</v>
       </c>
       <c r="H2">
-        <v>0.022891</v>
+        <v>0.249108</v>
       </c>
       <c r="I2">
-        <v>0.004433708971583278</v>
+        <v>0.1024543843803827</v>
       </c>
       <c r="J2">
-        <v>0.004433708971583277</v>
+        <v>0.1024543843803827</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.03061966666666667</v>
+        <v>0.136464</v>
       </c>
       <c r="N2">
-        <v>0.091859</v>
+        <v>0.409392</v>
       </c>
       <c r="O2">
-        <v>0.04788163422745326</v>
+        <v>0.2657380151046518</v>
       </c>
       <c r="P2">
-        <v>0.04788163422745326</v>
+        <v>0.2657380151046518</v>
       </c>
       <c r="Q2">
-        <v>0.0002336382632222222</v>
+        <v>0.011331424704</v>
       </c>
       <c r="R2">
-        <v>0.002102744369</v>
+        <v>0.101982822336</v>
       </c>
       <c r="S2">
-        <v>0.0002122932312483285</v>
+        <v>0.02722602474401194</v>
       </c>
       <c r="T2">
-        <v>0.0002122932312483285</v>
+        <v>0.02722602474401193</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.007630333333333333</v>
+        <v>0.083036</v>
       </c>
       <c r="H3">
-        <v>0.022891</v>
+        <v>0.249108</v>
       </c>
       <c r="I3">
-        <v>0.004433708971583278</v>
+        <v>0.1024543843803827</v>
       </c>
       <c r="J3">
-        <v>0.004433708971583277</v>
+        <v>0.1024543843803827</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.9586520000000001</v>
       </c>
       <c r="O3">
-        <v>0.499698716679003</v>
+        <v>0.6222649188457632</v>
       </c>
       <c r="P3">
-        <v>0.499698716679003</v>
+        <v>0.6222649188457632</v>
       </c>
       <c r="Q3">
-        <v>0.002438278103555556</v>
+        <v>0.02653420915733334</v>
       </c>
       <c r="R3">
-        <v>0.021944502932</v>
+        <v>0.238807882416</v>
       </c>
       <c r="S3">
-        <v>0.002215518683228346</v>
+        <v>0.06375376918185147</v>
       </c>
       <c r="T3">
-        <v>0.002215518683228346</v>
+        <v>0.06375376918185145</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,57 +661,57 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.083036</v>
+      </c>
+      <c r="H4">
+        <v>0.249108</v>
+      </c>
+      <c r="I4">
+        <v>0.1024543843803827</v>
+      </c>
+      <c r="J4">
+        <v>0.1024543843803827</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.007630333333333333</v>
-      </c>
-      <c r="H4">
-        <v>0.022891</v>
-      </c>
-      <c r="I4">
-        <v>0.004433708971583278</v>
-      </c>
-      <c r="J4">
-        <v>0.004433708971583277</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.2893163333333333</v>
+        <v>0.01800166666666667</v>
       </c>
       <c r="N4">
-        <v>0.867949</v>
+        <v>0.054005</v>
       </c>
       <c r="O4">
-        <v>0.4524196490935437</v>
+        <v>0.03505486552186345</v>
       </c>
       <c r="P4">
-        <v>0.4524196490935438</v>
+        <v>0.03505486552186345</v>
       </c>
       <c r="Q4">
-        <v>0.002207580062111111</v>
+        <v>0.001494786393333333</v>
       </c>
       <c r="R4">
-        <v>0.019868220559</v>
+        <v>0.01345307754</v>
       </c>
       <c r="S4">
-        <v>0.002005897057106603</v>
+        <v>0.003591524666579623</v>
       </c>
       <c r="T4">
-        <v>0.002005897057106603</v>
+        <v>0.003591524666579621</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.385603</v>
+        <v>0.083036</v>
       </c>
       <c r="H5">
-        <v>1.156809</v>
+        <v>0.249108</v>
       </c>
       <c r="I5">
-        <v>0.2240598681450474</v>
+        <v>0.1024543843803827</v>
       </c>
       <c r="J5">
-        <v>0.2240598681450474</v>
+        <v>0.1024543843803827</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.03061966666666667</v>
+        <v>0.039512</v>
       </c>
       <c r="N5">
-        <v>0.091859</v>
+        <v>0.118536</v>
       </c>
       <c r="O5">
-        <v>0.04788163422745326</v>
+        <v>0.0769422005277216</v>
       </c>
       <c r="P5">
-        <v>0.04788163422745326</v>
+        <v>0.0769422005277216</v>
       </c>
       <c r="Q5">
-        <v>0.01180703532566667</v>
+        <v>0.003280918432</v>
       </c>
       <c r="R5">
-        <v>0.106263317931</v>
+        <v>0.029528265888</v>
       </c>
       <c r="S5">
-        <v>0.01072835265157257</v>
+        <v>0.007883065787939675</v>
       </c>
       <c r="T5">
-        <v>0.01072835265157257</v>
+        <v>0.007883065787939672</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>1.156809</v>
       </c>
       <c r="I6">
-        <v>0.2240598681450474</v>
+        <v>0.4757781923530602</v>
       </c>
       <c r="J6">
-        <v>0.2240598681450474</v>
+        <v>0.4757781923530602</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3195506666666667</v>
+        <v>0.136464</v>
       </c>
       <c r="N6">
-        <v>0.9586520000000001</v>
+        <v>0.409392</v>
       </c>
       <c r="O6">
-        <v>0.499698716679003</v>
+        <v>0.2657380151046518</v>
       </c>
       <c r="P6">
-        <v>0.499698716679003</v>
+        <v>0.2657380151046518</v>
       </c>
       <c r="Q6">
-        <v>0.1232196957186667</v>
+        <v>0.052620927792</v>
       </c>
       <c r="R6">
-        <v>1.108977261468</v>
+        <v>0.473588350128</v>
       </c>
       <c r="S6">
-        <v>0.1119624285713468</v>
+        <v>0.1264323524659814</v>
       </c>
       <c r="T6">
-        <v>0.1119624285713468</v>
+        <v>0.1264323524659814</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>1.156809</v>
       </c>
       <c r="I7">
-        <v>0.2240598681450474</v>
+        <v>0.4757781923530602</v>
       </c>
       <c r="J7">
-        <v>0.2240598681450474</v>
+        <v>0.4757781923530602</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2893163333333333</v>
+        <v>0.3195506666666667</v>
       </c>
       <c r="N7">
-        <v>0.867949</v>
+        <v>0.9586520000000001</v>
       </c>
       <c r="O7">
-        <v>0.4524196490935437</v>
+        <v>0.6222649188457632</v>
       </c>
       <c r="P7">
-        <v>0.4524196490935438</v>
+        <v>0.6222649188457632</v>
       </c>
       <c r="Q7">
-        <v>0.1115612460823333</v>
+        <v>0.1232196957186667</v>
       </c>
       <c r="R7">
-        <v>1.004051214741</v>
+        <v>1.108977261468</v>
       </c>
       <c r="S7">
-        <v>0.101369086922128</v>
+        <v>0.2960600782531609</v>
       </c>
       <c r="T7">
-        <v>0.101369086922128</v>
+        <v>0.2960600782531609</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,51 +915,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1742253333333333</v>
+        <v>0.385603</v>
       </c>
       <c r="H8">
-        <v>0.522676</v>
+        <v>1.156809</v>
       </c>
       <c r="I8">
-        <v>0.101235999756728</v>
+        <v>0.4757781923530602</v>
       </c>
       <c r="J8">
-        <v>0.101235999756728</v>
+        <v>0.4757781923530602</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.03061966666666667</v>
+        <v>0.01800166666666667</v>
       </c>
       <c r="N8">
-        <v>0.091859</v>
+        <v>0.054005</v>
       </c>
       <c r="O8">
-        <v>0.04788163422745326</v>
+        <v>0.03505486552186345</v>
       </c>
       <c r="P8">
-        <v>0.04788163422745326</v>
+        <v>0.03505486552186345</v>
       </c>
       <c r="Q8">
-        <v>0.005334721631555556</v>
+        <v>0.006941496671666666</v>
       </c>
       <c r="R8">
-        <v>0.048012494684</v>
+        <v>0.06247347004499999</v>
       </c>
       <c r="S8">
-        <v>0.0048473451110022</v>
+        <v>0.01667834055117181</v>
       </c>
       <c r="T8">
-        <v>0.004847345111002199</v>
+        <v>0.0166783405511718</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1742253333333333</v>
+        <v>0.385603</v>
       </c>
       <c r="H9">
-        <v>0.522676</v>
+        <v>1.156809</v>
       </c>
       <c r="I9">
-        <v>0.101235999756728</v>
+        <v>0.4757781923530602</v>
       </c>
       <c r="J9">
-        <v>0.101235999756728</v>
+        <v>0.4757781923530602</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.3195506666666667</v>
+        <v>0.039512</v>
       </c>
       <c r="N9">
-        <v>0.9586520000000001</v>
+        <v>0.118536</v>
       </c>
       <c r="O9">
-        <v>0.499698716679003</v>
+        <v>0.0769422005277216</v>
       </c>
       <c r="P9">
-        <v>0.499698716679003</v>
+        <v>0.0769422005277216</v>
       </c>
       <c r="Q9">
-        <v>0.0556738214168889</v>
+        <v>0.015235945736</v>
       </c>
       <c r="R9">
-        <v>0.5010643927520001</v>
+        <v>0.137123511624</v>
       </c>
       <c r="S9">
-        <v>0.05058749916015286</v>
+        <v>0.03660742108274606</v>
       </c>
       <c r="T9">
-        <v>0.05058749916015286</v>
+        <v>0.03660742108274606</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1742253333333333</v>
+        <v>0.05510133333333334</v>
       </c>
       <c r="H10">
-        <v>0.522676</v>
+        <v>0.165304</v>
       </c>
       <c r="I10">
-        <v>0.101235999756728</v>
+        <v>0.06798705603840416</v>
       </c>
       <c r="J10">
-        <v>0.101235999756728</v>
+        <v>0.06798705603840415</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2893163333333333</v>
+        <v>0.136464</v>
       </c>
       <c r="N10">
-        <v>0.867949</v>
+        <v>0.409392</v>
       </c>
       <c r="O10">
-        <v>0.4524196490935437</v>
+        <v>0.2657380151046518</v>
       </c>
       <c r="P10">
-        <v>0.4524196490935438</v>
+        <v>0.2657380151046518</v>
       </c>
       <c r="Q10">
-        <v>0.05040623461377778</v>
+        <v>0.007519348352000001</v>
       </c>
       <c r="R10">
-        <v>0.453656111524</v>
+        <v>0.067674135168</v>
       </c>
       <c r="S10">
-        <v>0.04580115548557298</v>
+        <v>0.01806674532445425</v>
       </c>
       <c r="T10">
-        <v>0.04580115548557298</v>
+        <v>0.01806674532445425</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,122 +1092,122 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.05510133333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.165304</v>
+      </c>
+      <c r="I11">
+        <v>0.06798705603840416</v>
+      </c>
+      <c r="J11">
+        <v>0.06798705603840415</v>
+      </c>
+      <c r="K11">
         <v>3</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.023520333333333</v>
-      </c>
-      <c r="H11">
-        <v>3.070561</v>
-      </c>
-      <c r="I11">
-        <v>0.5947304116680671</v>
-      </c>
-      <c r="J11">
-        <v>0.5947304116680669</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.03061966666666667</v>
+        <v>0.3195506666666667</v>
       </c>
       <c r="N11">
-        <v>0.091859</v>
+        <v>0.9586520000000001</v>
       </c>
       <c r="O11">
-        <v>0.04788163422745326</v>
+        <v>0.6222649188457632</v>
       </c>
       <c r="P11">
-        <v>0.04788163422745326</v>
+        <v>0.6222649188457632</v>
       </c>
       <c r="Q11">
-        <v>0.03133985143322222</v>
+        <v>0.01760766780088889</v>
       </c>
       <c r="R11">
-        <v>0.282058662899</v>
+        <v>0.158469010208</v>
       </c>
       <c r="S11">
-        <v>0.02847666403543309</v>
+        <v>0.04230595990829992</v>
       </c>
       <c r="T11">
-        <v>0.02847666403543309</v>
+        <v>0.04230595990829991</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.023520333333333</v>
+        <v>0.05510133333333334</v>
       </c>
       <c r="H12">
-        <v>3.070561</v>
+        <v>0.165304</v>
       </c>
       <c r="I12">
-        <v>0.5947304116680671</v>
+        <v>0.06798705603840416</v>
       </c>
       <c r="J12">
-        <v>0.5947304116680669</v>
+        <v>0.06798705603840415</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.3195506666666667</v>
+        <v>0.01800166666666667</v>
       </c>
       <c r="N12">
-        <v>0.9586520000000001</v>
+        <v>0.054005</v>
       </c>
       <c r="O12">
-        <v>0.499698716679003</v>
+        <v>0.03505486552186345</v>
       </c>
       <c r="P12">
-        <v>0.499698716679003</v>
+        <v>0.03505486552186345</v>
       </c>
       <c r="Q12">
-        <v>0.3270666048635556</v>
+        <v>0.0009919158355555556</v>
       </c>
       <c r="R12">
-        <v>2.943599443772</v>
+        <v>0.00892724252</v>
       </c>
       <c r="S12">
-        <v>0.2971860234805082</v>
+        <v>0.002383277106653652</v>
       </c>
       <c r="T12">
-        <v>0.2971860234805082</v>
+        <v>0.002383277106653651</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.023520333333333</v>
+        <v>0.05510133333333334</v>
       </c>
       <c r="H13">
-        <v>3.070561</v>
+        <v>0.165304</v>
       </c>
       <c r="I13">
-        <v>0.5947304116680671</v>
+        <v>0.06798705603840416</v>
       </c>
       <c r="J13">
-        <v>0.5947304116680669</v>
+        <v>0.06798705603840415</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.2893163333333333</v>
+        <v>0.039512</v>
       </c>
       <c r="N13">
-        <v>0.867949</v>
+        <v>0.118536</v>
       </c>
       <c r="O13">
-        <v>0.4524196490935437</v>
+        <v>0.0769422005277216</v>
       </c>
       <c r="P13">
-        <v>0.4524196490935438</v>
+        <v>0.0769422005277216</v>
       </c>
       <c r="Q13">
-        <v>0.2961211499321111</v>
+        <v>0.002177163882666667</v>
       </c>
       <c r="R13">
-        <v>2.665090349389</v>
+        <v>0.019594474944</v>
       </c>
       <c r="S13">
-        <v>0.2690677241521257</v>
+        <v>0.005231073698996338</v>
       </c>
       <c r="T13">
-        <v>0.2690677241521257</v>
+        <v>0.005231073698996338</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.09389933333333333</v>
+        <v>0.07842200000000001</v>
       </c>
       <c r="H14">
-        <v>0.281698</v>
+        <v>0.235266</v>
       </c>
       <c r="I14">
-        <v>0.05456148485767622</v>
+        <v>0.0967613773770217</v>
       </c>
       <c r="J14">
-        <v>0.05456148485767621</v>
+        <v>0.09676137737702167</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,33 +1305,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.03061966666666667</v>
+        <v>0.136464</v>
       </c>
       <c r="N14">
-        <v>0.091859</v>
+        <v>0.409392</v>
       </c>
       <c r="O14">
-        <v>0.04788163422745326</v>
+        <v>0.2657380151046518</v>
       </c>
       <c r="P14">
-        <v>0.04788163422745326</v>
+        <v>0.2657380151046518</v>
       </c>
       <c r="Q14">
-        <v>0.002875166286888889</v>
+        <v>0.010701779808</v>
       </c>
       <c r="R14">
-        <v>0.025876496582</v>
+        <v>0.096316018272</v>
       </c>
       <c r="S14">
-        <v>0.002612493060861983</v>
+        <v>0.0257131763629619</v>
       </c>
       <c r="T14">
-        <v>0.002612493060861982</v>
+        <v>0.0257131763629619</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.09389933333333333</v>
+        <v>0.07842200000000001</v>
       </c>
       <c r="H15">
-        <v>0.281698</v>
+        <v>0.235266</v>
       </c>
       <c r="I15">
-        <v>0.05456148485767622</v>
+        <v>0.0967613773770217</v>
       </c>
       <c r="J15">
-        <v>0.05456148485767621</v>
+        <v>0.09676137737702167</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,27 +1373,27 @@
         <v>0.9586520000000001</v>
       </c>
       <c r="O15">
-        <v>0.499698716679003</v>
+        <v>0.6222649188457632</v>
       </c>
       <c r="P15">
-        <v>0.499698716679003</v>
+        <v>0.6222649188457632</v>
       </c>
       <c r="Q15">
-        <v>0.03000559456622223</v>
+        <v>0.02505980238133334</v>
       </c>
       <c r="R15">
-        <v>0.270050351096</v>
+        <v>0.225538221432</v>
       </c>
       <c r="S15">
-        <v>0.02726430396348166</v>
+        <v>0.06021121064091668</v>
       </c>
       <c r="T15">
-        <v>0.02726430396348165</v>
+        <v>0.06021121064091665</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1405,57 +1405,57 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.09389933333333333</v>
+        <v>0.07842200000000001</v>
       </c>
       <c r="H16">
-        <v>0.281698</v>
+        <v>0.235266</v>
       </c>
       <c r="I16">
-        <v>0.05456148485767622</v>
+        <v>0.0967613773770217</v>
       </c>
       <c r="J16">
-        <v>0.05456148485767621</v>
+        <v>0.09676137737702167</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.2893163333333333</v>
+        <v>0.01800166666666667</v>
       </c>
       <c r="N16">
-        <v>0.867949</v>
+        <v>0.054005</v>
       </c>
       <c r="O16">
-        <v>0.4524196490935437</v>
+        <v>0.03505486552186345</v>
       </c>
       <c r="P16">
-        <v>0.4524196490935438</v>
+        <v>0.03505486552186345</v>
       </c>
       <c r="Q16">
-        <v>0.02716661082244445</v>
+        <v>0.001411726703333333</v>
       </c>
       <c r="R16">
-        <v>0.244499497402</v>
+        <v>0.01270554033</v>
       </c>
       <c r="S16">
-        <v>0.02468468783333257</v>
+        <v>0.003391957071661776</v>
       </c>
       <c r="T16">
-        <v>0.02468468783333257</v>
+        <v>0.003391957071661775</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.07842200000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.235266</v>
+      </c>
+      <c r="I17">
+        <v>0.0967613773770217</v>
+      </c>
+      <c r="J17">
+        <v>0.09676137737702167</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G17">
-        <v>0.03610366666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.108311</v>
-      </c>
-      <c r="I17">
-        <v>0.02097852660089801</v>
-      </c>
-      <c r="J17">
-        <v>0.02097852660089801</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M17">
-        <v>0.03061966666666667</v>
+        <v>0.039512</v>
       </c>
       <c r="N17">
-        <v>0.091859</v>
+        <v>0.118536</v>
       </c>
       <c r="O17">
-        <v>0.04788163422745326</v>
+        <v>0.0769422005277216</v>
       </c>
       <c r="P17">
-        <v>0.04788163422745326</v>
+        <v>0.0769422005277216</v>
       </c>
       <c r="Q17">
-        <v>0.001105482238777778</v>
+        <v>0.003098610064</v>
       </c>
       <c r="R17">
-        <v>0.009949340148999999</v>
+        <v>0.027887490576</v>
       </c>
       <c r="S17">
-        <v>0.001004486137335097</v>
+        <v>0.007445033301481349</v>
       </c>
       <c r="T17">
-        <v>0.001004486137335097</v>
+        <v>0.007445033301481346</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,51 +1535,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.03610366666666667</v>
+        <v>0.09847099999999999</v>
       </c>
       <c r="H18">
-        <v>0.108311</v>
+        <v>0.295413</v>
       </c>
       <c r="I18">
-        <v>0.02097852660089801</v>
+        <v>0.1214989364169838</v>
       </c>
       <c r="J18">
-        <v>0.02097852660089801</v>
+        <v>0.1214989364169838</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.3195506666666667</v>
+        <v>0.136464</v>
       </c>
       <c r="N18">
-        <v>0.9586520000000001</v>
+        <v>0.409392</v>
       </c>
       <c r="O18">
-        <v>0.499698716679003</v>
+        <v>0.2657380151046518</v>
       </c>
       <c r="P18">
-        <v>0.499698716679003</v>
+        <v>0.2657380151046518</v>
       </c>
       <c r="Q18">
-        <v>0.01153695075244445</v>
+        <v>0.013437746544</v>
       </c>
       <c r="R18">
-        <v>0.103832556772</v>
+        <v>0.120939718896</v>
       </c>
       <c r="S18">
-        <v>0.01048294282028506</v>
+        <v>0.03228688620077556</v>
       </c>
       <c r="T18">
-        <v>0.01048294282028506</v>
+        <v>0.03228688620077556</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.03610366666666667</v>
+        <v>0.09847099999999999</v>
       </c>
       <c r="H19">
-        <v>0.108311</v>
+        <v>0.295413</v>
       </c>
       <c r="I19">
-        <v>0.02097852660089801</v>
+        <v>0.1214989364169838</v>
       </c>
       <c r="J19">
-        <v>0.02097852660089801</v>
+        <v>0.1214989364169838</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,400 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2893163333333333</v>
+        <v>0.3195506666666667</v>
       </c>
       <c r="N19">
-        <v>0.867949</v>
+        <v>0.9586520000000001</v>
       </c>
       <c r="O19">
-        <v>0.4524196490935437</v>
+        <v>0.6222649188457632</v>
       </c>
       <c r="P19">
-        <v>0.4524196490935438</v>
+        <v>0.6222649188457632</v>
       </c>
       <c r="Q19">
-        <v>0.01044538045988889</v>
+        <v>0.03146647369733333</v>
       </c>
       <c r="R19">
-        <v>0.09400842413899999</v>
+        <v>0.283198263276</v>
       </c>
       <c r="S19">
-        <v>0.009491097643277852</v>
+        <v>0.07560452580936095</v>
       </c>
       <c r="T19">
-        <v>0.009491097643277852</v>
+        <v>0.07560452580936093</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.09847099999999999</v>
+      </c>
+      <c r="H20">
+        <v>0.295413</v>
+      </c>
+      <c r="I20">
+        <v>0.1214989364169838</v>
+      </c>
+      <c r="J20">
+        <v>0.1214989364169838</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.01800166666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.054005</v>
+      </c>
+      <c r="O20">
+        <v>0.03505486552186345</v>
+      </c>
+      <c r="P20">
+        <v>0.03505486552186345</v>
+      </c>
+      <c r="Q20">
+        <v>0.001772642118333333</v>
+      </c>
+      <c r="R20">
+        <v>0.015953779065</v>
+      </c>
+      <c r="S20">
+        <v>0.004259128877146803</v>
+      </c>
+      <c r="T20">
+        <v>0.004259128877146803</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.09847099999999999</v>
+      </c>
+      <c r="H21">
+        <v>0.295413</v>
+      </c>
+      <c r="I21">
+        <v>0.1214989364169838</v>
+      </c>
+      <c r="J21">
+        <v>0.1214989364169838</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.039512</v>
+      </c>
+      <c r="N21">
+        <v>0.118536</v>
+      </c>
+      <c r="O21">
+        <v>0.0769422005277216</v>
+      </c>
+      <c r="P21">
+        <v>0.0769422005277216</v>
+      </c>
+      <c r="Q21">
+        <v>0.003890786152</v>
+      </c>
+      <c r="R21">
+        <v>0.035017075368</v>
+      </c>
+      <c r="S21">
+        <v>0.009348395529700463</v>
+      </c>
+      <c r="T21">
+        <v>0.009348395529700461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.1098346666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.329504</v>
+      </c>
+      <c r="I22">
+        <v>0.1355200534341476</v>
+      </c>
+      <c r="J22">
+        <v>0.1355200534341475</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.136464</v>
+      </c>
+      <c r="N22">
+        <v>0.409392</v>
+      </c>
+      <c r="O22">
+        <v>0.2657380151046518</v>
+      </c>
+      <c r="P22">
+        <v>0.2657380151046518</v>
+      </c>
+      <c r="Q22">
+        <v>0.014988477952</v>
+      </c>
+      <c r="R22">
+        <v>0.134896301568</v>
+      </c>
+      <c r="S22">
+        <v>0.03601283000646672</v>
+      </c>
+      <c r="T22">
+        <v>0.03601283000646671</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.1098346666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.329504</v>
+      </c>
+      <c r="I23">
+        <v>0.1355200534341476</v>
+      </c>
+      <c r="J23">
+        <v>0.1355200534341475</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.3195506666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.9586520000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.6222649188457632</v>
+      </c>
+      <c r="P23">
+        <v>0.6222649188457632</v>
+      </c>
+      <c r="Q23">
+        <v>0.03509774095644445</v>
+      </c>
+      <c r="R23">
+        <v>0.315879668608</v>
+      </c>
+      <c r="S23">
+        <v>0.08432937505217332</v>
+      </c>
+      <c r="T23">
+        <v>0.08432937505217331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.1098346666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.329504</v>
+      </c>
+      <c r="I24">
+        <v>0.1355200534341476</v>
+      </c>
+      <c r="J24">
+        <v>0.1355200534341475</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.01800166666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.054005</v>
+      </c>
+      <c r="O24">
+        <v>0.03505486552186345</v>
+      </c>
+      <c r="P24">
+        <v>0.03505486552186345</v>
+      </c>
+      <c r="Q24">
+        <v>0.001977207057777778</v>
+      </c>
+      <c r="R24">
+        <v>0.01779486352</v>
+      </c>
+      <c r="S24">
+        <v>0.004750637248649791</v>
+      </c>
+      <c r="T24">
+        <v>0.00475063724864979</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.1098346666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.329504</v>
+      </c>
+      <c r="I25">
+        <v>0.1355200534341476</v>
+      </c>
+      <c r="J25">
+        <v>0.1355200534341475</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.039512</v>
+      </c>
+      <c r="N25">
+        <v>0.118536</v>
+      </c>
+      <c r="O25">
+        <v>0.0769422005277216</v>
+      </c>
+      <c r="P25">
+        <v>0.0769422005277216</v>
+      </c>
+      <c r="Q25">
+        <v>0.004339787349333333</v>
+      </c>
+      <c r="R25">
+        <v>0.03905808614400001</v>
+      </c>
+      <c r="S25">
+        <v>0.01042721112685773</v>
+      </c>
+      <c r="T25">
+        <v>0.01042721112685773</v>
       </c>
     </row>
   </sheetData>
